--- a/bsq/docs/部绍擎table_api文档.xlsx
+++ b/bsq/docs/部绍擎table_api文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D8BF51-8078-4D0C-ACE4-B5A5EB474EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1795AC-82EF-4B7E-9E31-4D50E48DC74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8724" yWindow="204" windowWidth="13668" windowHeight="11904" xr2:uid="{07D51E4F-3828-43CD-B23F-D96CD8AC777D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07D51E4F-3828-43CD-B23F-D96CD8AC777D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>行配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paginationConfig配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paginationConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -604,17 +616,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570693F0-294C-4026-9B5D-8A190A8C6A78}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
@@ -711,133 +723,149 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E16" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
